--- a/Информация о проходах/Никулина Надежда Владимировна.xlsx
+++ b/Информация о проходах/Никулина Надежда Владимировна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 14:00:19</t>
+          <t>2024-05-31 13:42:20</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,113 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-05-31 15:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Турникеты № 1+2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>2024-06-04 13:54:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-06-04 16:54:29</t>
         </is>
       </c>
     </row>

--- a/Информация о проходах/Никулина Надежда Владимировна.xlsx
+++ b/Информация о проходах/Никулина Надежда Владимировна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-31 13:42:20</t>
+          <t>2024-06-03 14:00:19</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-31 15:41:39</t>
+          <t>2024-06-04 13:54:25</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-03 14:00:19</t>
+          <t>2024-06-04 16:54:29</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-04 13:54:25</t>
+          <t>2024-06-05 08:58:33</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,551 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-04 16:54:29</t>
+          <t>2024-06-05 09:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-05 13:03:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-05 15:29:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-06 13:26:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-06-06 14:56:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-07 14:06:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-07 15:29:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-06-10 14:03:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-06-10 15:57:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-06-11 14:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-06-13 14:14:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:49:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-06-25 11:14:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-06-25 11:20:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:18:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:49:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-07-01 10:15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Никулина Надежда Владимировна</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Начальник отдела Валидации</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Отдел Валидации</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-07-01 15:17:25</t>
         </is>
       </c>
     </row>
